--- a/data/pca/factorExposure/factorExposure_2009-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01677590400721883</v>
+        <v>0.01648239915194324</v>
       </c>
       <c r="C2">
-        <v>-0.001402124378095069</v>
+        <v>-0.001032350633398164</v>
       </c>
       <c r="D2">
-        <v>0.008781164283206201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009005308253373388</v>
+      </c>
+      <c r="E2">
+        <v>-0.001325914237282402</v>
+      </c>
+      <c r="F2">
+        <v>0.01217738616786116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09137969656682042</v>
+        <v>0.09215304543475877</v>
       </c>
       <c r="C4">
-        <v>-0.01966949130810293</v>
+        <v>-0.01476589196232535</v>
       </c>
       <c r="D4">
-        <v>0.07716992078391961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0818431864558838</v>
+      </c>
+      <c r="E4">
+        <v>-0.02657929518678025</v>
+      </c>
+      <c r="F4">
+        <v>-0.03134114011796919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.126380736839992e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.362776444489602e-07</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-2.481320497916772e-05</v>
+      </c>
+      <c r="E5">
+        <v>-2.193677388437045e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001035180166120028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1526873651920094</v>
+        <v>0.1613172226889656</v>
       </c>
       <c r="C6">
-        <v>-0.02903395201504345</v>
+        <v>-0.02854628477169378</v>
       </c>
       <c r="D6">
-        <v>-0.03756646194628725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02645713820200952</v>
+      </c>
+      <c r="E6">
+        <v>-0.009661343089246981</v>
+      </c>
+      <c r="F6">
+        <v>-0.04075876462383589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05974610172232356</v>
+        <v>0.06186478495966773</v>
       </c>
       <c r="C7">
-        <v>-0.001671853303388195</v>
+        <v>0.001607637605057074</v>
       </c>
       <c r="D7">
-        <v>0.04834671058392277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05308503209699635</v>
+      </c>
+      <c r="E7">
+        <v>-0.01298811079794331</v>
+      </c>
+      <c r="F7">
+        <v>-0.04926332943867325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06207992147153873</v>
+        <v>0.05759112353159344</v>
       </c>
       <c r="C8">
-        <v>0.01044757228947154</v>
+        <v>0.01235440373455266</v>
       </c>
       <c r="D8">
-        <v>0.02626194230458517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03093309793259795</v>
+      </c>
+      <c r="E8">
+        <v>-0.01773589820740107</v>
+      </c>
+      <c r="F8">
+        <v>0.02668997046242445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07056020763614453</v>
+        <v>0.07147198106909874</v>
       </c>
       <c r="C9">
-        <v>-0.01589584739450389</v>
+        <v>-0.01045992335518624</v>
       </c>
       <c r="D9">
-        <v>0.07761568963895843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08491489715012164</v>
+      </c>
+      <c r="E9">
+        <v>-0.02378017123754145</v>
+      </c>
+      <c r="F9">
+        <v>-0.04806829771735706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08505629090262516</v>
+        <v>0.08729670588805373</v>
       </c>
       <c r="C10">
-        <v>-0.01461165334703397</v>
+        <v>-0.02147377334063058</v>
       </c>
       <c r="D10">
-        <v>-0.1660902880277379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1600610473583634</v>
+      </c>
+      <c r="E10">
+        <v>0.03345191028733627</v>
+      </c>
+      <c r="F10">
+        <v>0.05805629942075426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09109199520412951</v>
+        <v>0.08761840798603164</v>
       </c>
       <c r="C11">
-        <v>-0.01693615714006056</v>
+        <v>-0.01137764557998977</v>
       </c>
       <c r="D11">
-        <v>0.11049307964111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175701384406313</v>
+      </c>
+      <c r="E11">
+        <v>-0.04784189433919314</v>
+      </c>
+      <c r="F11">
+        <v>-0.02468369755643466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09587651316353098</v>
+        <v>0.09014678157427107</v>
       </c>
       <c r="C12">
-        <v>-0.01500342372026375</v>
+        <v>-0.008602016752858814</v>
       </c>
       <c r="D12">
-        <v>0.1168247903760005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1322401030531999</v>
+      </c>
+      <c r="E12">
+        <v>-0.04745378747133809</v>
+      </c>
+      <c r="F12">
+        <v>-0.03163952958550471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04436272188638089</v>
+        <v>0.04356911847853419</v>
       </c>
       <c r="C13">
-        <v>-0.006455921886596557</v>
+        <v>-0.002616523407144287</v>
       </c>
       <c r="D13">
-        <v>0.0437638160017803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05381758258525536</v>
+      </c>
+      <c r="E13">
+        <v>0.0003214359688484385</v>
+      </c>
+      <c r="F13">
+        <v>-0.004762253544297569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01940610841478398</v>
+        <v>0.02355120550141096</v>
       </c>
       <c r="C14">
-        <v>-0.01514975652301797</v>
+        <v>-0.01369778498821073</v>
       </c>
       <c r="D14">
-        <v>0.02954590363191742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03244549510919348</v>
+      </c>
+      <c r="E14">
+        <v>-0.01825519060133785</v>
+      </c>
+      <c r="F14">
+        <v>-0.01152353590930148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03384291511639595</v>
+        <v>0.03363812071751619</v>
       </c>
       <c r="C15">
-        <v>-0.007500787048905221</v>
+        <v>-0.00528824413817375</v>
       </c>
       <c r="D15">
-        <v>0.04367451157418591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04686543826052948</v>
+      </c>
+      <c r="E15">
+        <v>-0.008069235993464843</v>
+      </c>
+      <c r="F15">
+        <v>-0.02909945464573119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07464638634471145</v>
+        <v>0.07242555728045255</v>
       </c>
       <c r="C16">
-        <v>-0.007430626286500875</v>
+        <v>-0.001540433071103716</v>
       </c>
       <c r="D16">
-        <v>0.1148938333698448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.128191622571519</v>
+      </c>
+      <c r="E16">
+        <v>-0.0618224159461005</v>
+      </c>
+      <c r="F16">
+        <v>-0.0277168215992914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0004853847532903171</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003898306657407458</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002380148905529202</v>
+      </c>
+      <c r="E17">
+        <v>-0.001610070811044375</v>
+      </c>
+      <c r="F17">
+        <v>0.00282220893551099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02273977773912112</v>
+        <v>0.04023668923587648</v>
       </c>
       <c r="C18">
-        <v>0.002543366500685533</v>
+        <v>0.002627986462178942</v>
       </c>
       <c r="D18">
-        <v>0.0251314313226189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01575173228473371</v>
+      </c>
+      <c r="E18">
+        <v>0.006329376100543908</v>
+      </c>
+      <c r="F18">
+        <v>0.01010159244872726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06346117851521976</v>
+        <v>0.06225316322927855</v>
       </c>
       <c r="C20">
-        <v>-0.005291690160018323</v>
+        <v>-0.0009716215081664268</v>
       </c>
       <c r="D20">
-        <v>0.06991965133902621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07885520043206475</v>
+      </c>
+      <c r="E20">
+        <v>-0.05769303913040999</v>
+      </c>
+      <c r="F20">
+        <v>-0.02939688997104035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03869567617574549</v>
+        <v>0.04044318734693998</v>
       </c>
       <c r="C21">
-        <v>-0.009319571062202353</v>
+        <v>-0.006304368569559609</v>
       </c>
       <c r="D21">
-        <v>0.03405741973028036</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03637349641608453</v>
+      </c>
+      <c r="E21">
+        <v>0.002771981377409409</v>
+      </c>
+      <c r="F21">
+        <v>0.02482370721130273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0410361351303371</v>
+        <v>0.04425442169559949</v>
       </c>
       <c r="C22">
-        <v>-0.001935696299747505</v>
+        <v>-0.001069117773538273</v>
       </c>
       <c r="D22">
-        <v>-0.001386094231767645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007404022697302996</v>
+      </c>
+      <c r="E22">
+        <v>-0.03755430494900244</v>
+      </c>
+      <c r="F22">
+        <v>0.04698704128500256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04099898284652674</v>
+        <v>0.04423022108256247</v>
       </c>
       <c r="C23">
-        <v>-0.001925252660153578</v>
+        <v>-0.001059993922900805</v>
       </c>
       <c r="D23">
-        <v>-0.001362189520230625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007418016749558328</v>
+      </c>
+      <c r="E23">
+        <v>-0.03773697645631392</v>
+      </c>
+      <c r="F23">
+        <v>0.04695937437896585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08210756376060621</v>
+        <v>0.07835843937628131</v>
       </c>
       <c r="C24">
-        <v>-0.008043911126341325</v>
+        <v>-0.002323058392220431</v>
       </c>
       <c r="D24">
-        <v>0.1150672236286443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202726548940665</v>
+      </c>
+      <c r="E24">
+        <v>-0.04950477067383211</v>
+      </c>
+      <c r="F24">
+        <v>-0.03027047179057446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08679469530683595</v>
+        <v>0.08334891678286283</v>
       </c>
       <c r="C25">
-        <v>-0.01026389981208542</v>
+        <v>-0.005030541018893472</v>
       </c>
       <c r="D25">
-        <v>0.1015099923958419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095743607065864</v>
+      </c>
+      <c r="E25">
+        <v>-0.03283508489184767</v>
+      </c>
+      <c r="F25">
+        <v>-0.02789149582217789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05765525792059078</v>
+        <v>0.05975383659610121</v>
       </c>
       <c r="C26">
-        <v>-0.01786350107482384</v>
+        <v>-0.01447771099216269</v>
       </c>
       <c r="D26">
-        <v>0.03126113512089401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04354127509177903</v>
+      </c>
+      <c r="E26">
+        <v>-0.02903552093914228</v>
+      </c>
+      <c r="F26">
+        <v>0.007913241247035603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1338408672063664</v>
+        <v>0.1423844465002569</v>
       </c>
       <c r="C28">
-        <v>-0.01337242982149397</v>
+        <v>-0.02321754534626144</v>
       </c>
       <c r="D28">
-        <v>-0.2660532907347553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2603857357565079</v>
+      </c>
+      <c r="E28">
+        <v>0.06870814403003053</v>
+      </c>
+      <c r="F28">
+        <v>-0.004037410056380588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02556234981796141</v>
+        <v>0.02846835458623548</v>
       </c>
       <c r="C29">
-        <v>-0.009723896685867664</v>
+        <v>-0.008848349964311083</v>
       </c>
       <c r="D29">
-        <v>0.02837288320796643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03022396176075889</v>
+      </c>
+      <c r="E29">
+        <v>-0.01289182438624276</v>
+      </c>
+      <c r="F29">
+        <v>0.01367187765409985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06215981275534918</v>
+        <v>0.0587688333385793</v>
       </c>
       <c r="C30">
-        <v>-0.008630834883957264</v>
+        <v>-0.00294000993551328</v>
       </c>
       <c r="D30">
-        <v>0.07619140056681133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0874609084640101</v>
+      </c>
+      <c r="E30">
+        <v>-0.01461218045938157</v>
+      </c>
+      <c r="F30">
+        <v>-0.07875100828180369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05102166119065867</v>
+        <v>0.05158735631180564</v>
       </c>
       <c r="C31">
-        <v>-0.01739337944852113</v>
+        <v>-0.01615641500894066</v>
       </c>
       <c r="D31">
-        <v>0.0217447079805536</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02452492826849184</v>
+      </c>
+      <c r="E31">
+        <v>-0.02859130946686726</v>
+      </c>
+      <c r="F31">
+        <v>0.0005144025548119498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04873846635549898</v>
+        <v>0.05244423155399198</v>
       </c>
       <c r="C32">
-        <v>-0.00239454520115152</v>
+        <v>0.001431471000101177</v>
       </c>
       <c r="D32">
-        <v>0.02657711617904342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03407508983394769</v>
+      </c>
+      <c r="E32">
+        <v>-0.03344362882051905</v>
+      </c>
+      <c r="F32">
+        <v>-0.003126667802791122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09054323454856431</v>
+        <v>0.08935225561560642</v>
       </c>
       <c r="C33">
-        <v>-0.01307226544393258</v>
+        <v>-0.00711069650220087</v>
       </c>
       <c r="D33">
-        <v>0.08812470648572888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034056823601598</v>
+      </c>
+      <c r="E33">
+        <v>-0.04694547719712652</v>
+      </c>
+      <c r="F33">
+        <v>-0.04303868383711738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06918180685765037</v>
+        <v>0.06736951609506463</v>
       </c>
       <c r="C34">
-        <v>-0.01553562354668775</v>
+        <v>-0.01054560216448647</v>
       </c>
       <c r="D34">
-        <v>0.09704913595135731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094059150545719</v>
+      </c>
+      <c r="E34">
+        <v>-0.03599332506054097</v>
+      </c>
+      <c r="F34">
+        <v>-0.03473919305407137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02529324180472514</v>
+        <v>0.02664434534814046</v>
       </c>
       <c r="C35">
-        <v>-0.003670155413467611</v>
+        <v>-0.003080950853705935</v>
       </c>
       <c r="D35">
-        <v>0.008182659881934602</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01198567264811544</v>
+      </c>
+      <c r="E35">
+        <v>-0.01256358900792676</v>
+      </c>
+      <c r="F35">
+        <v>-0.000644926949573845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02485748897429234</v>
+        <v>0.02792000329774067</v>
       </c>
       <c r="C36">
-        <v>-0.007995416212499797</v>
+        <v>-0.006920529627508392</v>
       </c>
       <c r="D36">
-        <v>0.0383440333242822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03901455819926856</v>
+      </c>
+      <c r="E36">
+        <v>-0.01706358638317378</v>
+      </c>
+      <c r="F36">
+        <v>-0.01371156500550989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001403010362035438</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008525244227825676</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002831876153550063</v>
+      </c>
+      <c r="E37">
+        <v>6.275954290215481e-06</v>
+      </c>
+      <c r="F37">
+        <v>0.001858364161296699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1119568531355704</v>
+        <v>0.1010486704506497</v>
       </c>
       <c r="C39">
-        <v>-0.02299797313908148</v>
+        <v>-0.01625790213339191</v>
       </c>
       <c r="D39">
-        <v>0.1469224497566879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1508302972001631</v>
+      </c>
+      <c r="E39">
+        <v>-0.05945321818827047</v>
+      </c>
+      <c r="F39">
+        <v>-0.02184499842695391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03829399397441182</v>
+        <v>0.04343805540170202</v>
       </c>
       <c r="C40">
-        <v>-0.009245999036743873</v>
+        <v>-0.007674427663539653</v>
       </c>
       <c r="D40">
-        <v>0.02344816472151161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03272618442395623</v>
+      </c>
+      <c r="E40">
+        <v>-0.001813722811081074</v>
+      </c>
+      <c r="F40">
+        <v>0.0156110324222072</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02499458364021632</v>
+        <v>0.02711439628839391</v>
       </c>
       <c r="C41">
-        <v>-0.007319639635826669</v>
+        <v>-0.006790211070639003</v>
       </c>
       <c r="D41">
-        <v>0.009149495412289967</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01084450358849386</v>
+      </c>
+      <c r="E41">
+        <v>-0.01167853339232188</v>
+      </c>
+      <c r="F41">
+        <v>0.007152048288065313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04193731994427499</v>
+        <v>0.0400228861790209</v>
       </c>
       <c r="C43">
-        <v>-0.008263170744510833</v>
+        <v>-0.007637487436296147</v>
       </c>
       <c r="D43">
-        <v>0.01726683346916041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01943947471266221</v>
+      </c>
+      <c r="E43">
+        <v>-0.02539199175468762</v>
+      </c>
+      <c r="F43">
+        <v>0.01597670510057666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06986911342370083</v>
+        <v>0.07864846856457954</v>
       </c>
       <c r="C44">
-        <v>-0.02441839762218374</v>
+        <v>-0.01968174035491758</v>
       </c>
       <c r="D44">
-        <v>0.09730155080604999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09667221602921822</v>
+      </c>
+      <c r="E44">
+        <v>-0.0627059916724495</v>
+      </c>
+      <c r="F44">
+        <v>-0.1685301927113773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02180175718891639</v>
+        <v>0.02490789146537391</v>
       </c>
       <c r="C46">
-        <v>-0.004566996450779122</v>
+        <v>-0.003773747653018438</v>
       </c>
       <c r="D46">
-        <v>0.009722278596715067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01279428451401223</v>
+      </c>
+      <c r="E46">
+        <v>-0.02714453565361437</v>
+      </c>
+      <c r="F46">
+        <v>0.005705081936556976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05231300250577566</v>
+        <v>0.05164561576611338</v>
       </c>
       <c r="C47">
-        <v>-0.005016011840612386</v>
+        <v>-0.004386776326386129</v>
       </c>
       <c r="D47">
-        <v>0.006450664255379269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0109166361211714</v>
+      </c>
+      <c r="E47">
+        <v>-0.02242342871357782</v>
+      </c>
+      <c r="F47">
+        <v>0.03205123329552756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04829817936773203</v>
+        <v>0.05088892834190156</v>
       </c>
       <c r="C48">
-        <v>-0.005006828010585954</v>
+        <v>-0.002280971276564719</v>
       </c>
       <c r="D48">
-        <v>0.0465733582505355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05021057193109572</v>
+      </c>
+      <c r="E48">
+        <v>0.004502234403499181</v>
+      </c>
+      <c r="F48">
+        <v>-0.01238291750553714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1993573264690712</v>
+        <v>0.2002516310050817</v>
       </c>
       <c r="C49">
-        <v>-0.02185545816146806</v>
+        <v>-0.02072129770630783</v>
       </c>
       <c r="D49">
-        <v>-0.01384179138999307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004216845202788136</v>
+      </c>
+      <c r="E49">
+        <v>-0.03371336655243957</v>
+      </c>
+      <c r="F49">
+        <v>-0.04867338010294276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04973513981628213</v>
+        <v>0.05182430333421901</v>
       </c>
       <c r="C50">
-        <v>-0.0131703204277091</v>
+        <v>-0.01180585294929429</v>
       </c>
       <c r="D50">
-        <v>0.01993602650103837</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02304219960043092</v>
+      </c>
+      <c r="E50">
+        <v>-0.02979798356450989</v>
+      </c>
+      <c r="F50">
+        <v>-0.009578314976414464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558095002481883</v>
+        <v>0.1491681906621646</v>
       </c>
       <c r="C52">
-        <v>-0.02079844148101103</v>
+        <v>-0.01913289063713674</v>
       </c>
       <c r="D52">
-        <v>0.04251072875409247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04210037612563045</v>
+      </c>
+      <c r="E52">
+        <v>-0.02281390580966528</v>
+      </c>
+      <c r="F52">
+        <v>-0.04194179748636342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748206048903994</v>
+        <v>0.1693922354792228</v>
       </c>
       <c r="C53">
-        <v>-0.02151035123469985</v>
+        <v>-0.02202302026053683</v>
       </c>
       <c r="D53">
-        <v>0.006361011103497695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00550408450273966</v>
+      </c>
+      <c r="E53">
+        <v>-0.03030025824726097</v>
+      </c>
+      <c r="F53">
+        <v>-0.07498375589724102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0177973196005537</v>
+        <v>0.01953726723205859</v>
       </c>
       <c r="C54">
-        <v>-0.01235885019951759</v>
+        <v>-0.01088882176978563</v>
       </c>
       <c r="D54">
-        <v>0.03088605447744597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0321817770760994</v>
+      </c>
+      <c r="E54">
+        <v>-0.02061319648782492</v>
+      </c>
+      <c r="F54">
+        <v>0.002325273526390166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1173447334955949</v>
+        <v>0.1158827076050237</v>
       </c>
       <c r="C55">
-        <v>-0.01894050606231413</v>
+        <v>-0.01912421383044493</v>
       </c>
       <c r="D55">
-        <v>0.004650148978659531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008128616660066519</v>
+      </c>
+      <c r="E55">
+        <v>-0.02568505571007335</v>
+      </c>
+      <c r="F55">
+        <v>-0.04653333416562039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806191902781618</v>
+        <v>0.1758728946958167</v>
       </c>
       <c r="C56">
-        <v>-0.0192641083258917</v>
+        <v>-0.02008543588881173</v>
       </c>
       <c r="D56">
-        <v>-0.006179053263217878</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003257836921233931</v>
+      </c>
+      <c r="E56">
+        <v>-0.03244597005107885</v>
+      </c>
+      <c r="F56">
+        <v>-0.05501219648117397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04892841277534293</v>
+        <v>0.04687440189331196</v>
       </c>
       <c r="C58">
-        <v>-0.005512620096085606</v>
+        <v>-0.0003794247690178214</v>
       </c>
       <c r="D58">
-        <v>0.06361139668144172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07606390546285585</v>
+      </c>
+      <c r="E58">
+        <v>-0.03714378630238636</v>
+      </c>
+      <c r="F58">
+        <v>0.03773750693634406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1609959202706716</v>
+        <v>0.1672952641156867</v>
       </c>
       <c r="C59">
-        <v>-0.0150292211694676</v>
+        <v>-0.0235838580339821</v>
       </c>
       <c r="D59">
-        <v>-0.225278618200922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180913861190761</v>
+      </c>
+      <c r="E59">
+        <v>0.05011534543883275</v>
+      </c>
+      <c r="F59">
+        <v>0.03877391803750696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2385359990199713</v>
+        <v>0.2302756311967133</v>
       </c>
       <c r="C60">
-        <v>-0.003033573329639347</v>
+        <v>-0.0004342010071947897</v>
       </c>
       <c r="D60">
-        <v>0.03658621717842511</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0389891270119509</v>
+      </c>
+      <c r="E60">
+        <v>-0.006347481552646767</v>
+      </c>
+      <c r="F60">
+        <v>-0.006789988607193251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08399366621660374</v>
+        <v>0.07706279820638151</v>
       </c>
       <c r="C61">
-        <v>-0.01730568913826385</v>
+        <v>-0.01156019904245736</v>
       </c>
       <c r="D61">
-        <v>0.1081069688223842</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1154433457256265</v>
+      </c>
+      <c r="E61">
+        <v>-0.03785000138726188</v>
+      </c>
+      <c r="F61">
+        <v>-0.008505059808435873</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1726529333073046</v>
+        <v>0.1693239214710931</v>
       </c>
       <c r="C62">
-        <v>-0.02331680401935871</v>
+        <v>-0.02288901524039849</v>
       </c>
       <c r="D62">
-        <v>-0.000163658550414587</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006003441033929975</v>
+      </c>
+      <c r="E62">
+        <v>-0.03451321350571761</v>
+      </c>
+      <c r="F62">
+        <v>-0.04121416132906836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04125523098994519</v>
+        <v>0.04566354452437674</v>
       </c>
       <c r="C63">
-        <v>-0.005478844381893881</v>
+        <v>-0.001747715244808758</v>
       </c>
       <c r="D63">
-        <v>0.0480760790469823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06003111594802155</v>
+      </c>
+      <c r="E63">
+        <v>-0.02401865002939418</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004417507726736433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1134637491318124</v>
+        <v>0.1109984928927304</v>
       </c>
       <c r="C64">
-        <v>-0.01594375948277362</v>
+        <v>-0.01291142867183132</v>
       </c>
       <c r="D64">
-        <v>0.03248212721386039</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0425351500544095</v>
+      </c>
+      <c r="E64">
+        <v>-0.02390231024832811</v>
+      </c>
+      <c r="F64">
+        <v>-0.02631208014642517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1444774750034927</v>
+        <v>0.1516617500552234</v>
       </c>
       <c r="C65">
-        <v>-0.03518094521646454</v>
+        <v>-0.03567780866895259</v>
       </c>
       <c r="D65">
-        <v>-0.05840065446241958</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04616990253603009</v>
+      </c>
+      <c r="E65">
+        <v>-0.006982339597880947</v>
+      </c>
+      <c r="F65">
+        <v>-0.03762095135300939</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1354747076434839</v>
+        <v>0.121820846375748</v>
       </c>
       <c r="C66">
-        <v>-0.0216046998951161</v>
+        <v>-0.01481697690049343</v>
       </c>
       <c r="D66">
-        <v>0.1289288601477201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1397546334677429</v>
+      </c>
+      <c r="E66">
+        <v>-0.06516015200189289</v>
+      </c>
+      <c r="F66">
+        <v>-0.02689450097644293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06274791356736924</v>
+        <v>0.05576552915319955</v>
       </c>
       <c r="C67">
-        <v>-0.005868088155040699</v>
+        <v>-0.003491152758058932</v>
       </c>
       <c r="D67">
-        <v>0.05293853988601149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05762579607267752</v>
+      </c>
+      <c r="E67">
+        <v>-0.01884771887925088</v>
+      </c>
+      <c r="F67">
+        <v>0.0338769505909747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1067476240037814</v>
+        <v>0.1169099098611934</v>
       </c>
       <c r="C68">
-        <v>-0.02346426857100329</v>
+        <v>-0.03397988571898399</v>
       </c>
       <c r="D68">
-        <v>-0.2636138140147258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609953943115411</v>
+      </c>
+      <c r="E68">
+        <v>0.08941704074781252</v>
+      </c>
+      <c r="F68">
+        <v>-0.00040007523104443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03983932606466444</v>
+        <v>0.03862989181516994</v>
       </c>
       <c r="C69">
-        <v>-0.002404163955845915</v>
+        <v>-0.001419692567975507</v>
       </c>
       <c r="D69">
-        <v>0.005825963797990508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008366528924402232</v>
+      </c>
+      <c r="E69">
+        <v>-0.024158481517406</v>
+      </c>
+      <c r="F69">
+        <v>0.0001213407184028878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06651173849068254</v>
+        <v>0.06722574864310554</v>
       </c>
       <c r="C70">
-        <v>0.02407524571763237</v>
+        <v>0.0266808078573806</v>
       </c>
       <c r="D70">
-        <v>0.01720672255183911</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02593444471089728</v>
+      </c>
+      <c r="E70">
+        <v>0.03005718285301263</v>
+      </c>
+      <c r="F70">
+        <v>0.1818193691482781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1255995879575699</v>
+        <v>0.1369037964074114</v>
       </c>
       <c r="C71">
-        <v>-0.02795867016355959</v>
+        <v>-0.03860658789741735</v>
       </c>
       <c r="D71">
-        <v>-0.280771003489889</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2708363848782165</v>
+      </c>
+      <c r="E71">
+        <v>0.09864823160801849</v>
+      </c>
+      <c r="F71">
+        <v>-0.006124755791616845</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1379155645818258</v>
+        <v>0.1446803175520832</v>
       </c>
       <c r="C72">
-        <v>-0.028160009224621</v>
+        <v>-0.0286081925742478</v>
       </c>
       <c r="D72">
-        <v>0.001448967228003453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004893641066626533</v>
+      </c>
+      <c r="E72">
+        <v>-0.03845284908818694</v>
+      </c>
+      <c r="F72">
+        <v>-0.0276508626208243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2041938189848248</v>
+        <v>0.2038573930004048</v>
       </c>
       <c r="C73">
-        <v>-0.0171026905995177</v>
+        <v>-0.01383986066435759</v>
       </c>
       <c r="D73">
-        <v>0.007002063636787828</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01864390403212859</v>
+      </c>
+      <c r="E73">
+        <v>-0.06715693382771575</v>
+      </c>
+      <c r="F73">
+        <v>-0.0440413269905619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09275465412807148</v>
+        <v>0.09401897716760058</v>
       </c>
       <c r="C74">
-        <v>-0.01460240878653195</v>
+        <v>-0.01414689559144712</v>
       </c>
       <c r="D74">
-        <v>0.01482933441432902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01691428941211004</v>
+      </c>
+      <c r="E74">
+        <v>-0.04398403493743227</v>
+      </c>
+      <c r="F74">
+        <v>-0.05269230913433485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1337219293135155</v>
+        <v>0.1261401233709085</v>
       </c>
       <c r="C75">
-        <v>-0.03123819087549052</v>
+        <v>-0.02988064573545694</v>
       </c>
       <c r="D75">
-        <v>0.02306554829688798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02902024120772457</v>
+      </c>
+      <c r="E75">
+        <v>-0.05680680890768047</v>
+      </c>
+      <c r="F75">
+        <v>-0.02178136374419607</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08241901368876178</v>
+        <v>0.09065159373227766</v>
       </c>
       <c r="C77">
-        <v>-0.01469018310215636</v>
+        <v>-0.008787336075585191</v>
       </c>
       <c r="D77">
-        <v>0.1057301475106363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146033824452325</v>
+      </c>
+      <c r="E77">
+        <v>-0.04601433762479955</v>
+      </c>
+      <c r="F77">
+        <v>-0.03363639479125503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09995371241847108</v>
+        <v>0.100767479051296</v>
       </c>
       <c r="C78">
-        <v>-0.04377363307575168</v>
+        <v>-0.03921793753584808</v>
       </c>
       <c r="D78">
-        <v>0.1111126702548676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1098676267392513</v>
+      </c>
+      <c r="E78">
+        <v>-0.07501173859695032</v>
+      </c>
+      <c r="F78">
+        <v>-0.05393442130039782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1660201852931983</v>
+        <v>0.1631183168766956</v>
       </c>
       <c r="C79">
-        <v>-0.02593125269220923</v>
+        <v>-0.02510293543249456</v>
       </c>
       <c r="D79">
-        <v>0.007402037510757018</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01227722127046858</v>
+      </c>
+      <c r="E79">
+        <v>-0.04397333800308591</v>
+      </c>
+      <c r="F79">
+        <v>-0.01275734258400496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08101497014274281</v>
+        <v>0.07955731709312794</v>
       </c>
       <c r="C80">
-        <v>-0.001801479420031532</v>
+        <v>0.0003988276803632638</v>
       </c>
       <c r="D80">
-        <v>0.05473464262362455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05341797781238349</v>
+      </c>
+      <c r="E80">
+        <v>-0.03282309661072663</v>
+      </c>
+      <c r="F80">
+        <v>0.02634159542403802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204310614701692</v>
+        <v>0.1166159655345691</v>
       </c>
       <c r="C81">
-        <v>-0.03321421336742572</v>
+        <v>-0.0332649421607597</v>
       </c>
       <c r="D81">
-        <v>0.01081151455536514</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01316975536536326</v>
+      </c>
+      <c r="E81">
+        <v>-0.05407278626353127</v>
+      </c>
+      <c r="F81">
+        <v>-0.01799673562153229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1662938565431916</v>
+        <v>0.1656265473343932</v>
       </c>
       <c r="C82">
-        <v>-0.02659548872051671</v>
+        <v>-0.0275264711465779</v>
       </c>
       <c r="D82">
-        <v>0.006809536917315401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002637953352781052</v>
+      </c>
+      <c r="E82">
+        <v>-0.02846384692967749</v>
+      </c>
+      <c r="F82">
+        <v>-0.08239491933886831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06358149780376796</v>
+        <v>0.05741839629952956</v>
       </c>
       <c r="C83">
-        <v>-0.005916350191428453</v>
+        <v>-0.003452622224495037</v>
       </c>
       <c r="D83">
-        <v>0.04297195152869606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04742728459717839</v>
+      </c>
+      <c r="E83">
+        <v>-0.001356586765872513</v>
+      </c>
+      <c r="F83">
+        <v>0.03668364013570086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06278499865034878</v>
+        <v>0.05693540373820891</v>
       </c>
       <c r="C84">
-        <v>-0.01390234891649393</v>
+        <v>-0.01116569438152385</v>
       </c>
       <c r="D84">
-        <v>0.06996131483418687</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07209189707734728</v>
+      </c>
+      <c r="E84">
+        <v>-0.01446078268709678</v>
+      </c>
+      <c r="F84">
+        <v>-0.01558468516318738</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1391932590928815</v>
+        <v>0.1347025129763103</v>
       </c>
       <c r="C85">
-        <v>-0.03013279476191835</v>
+        <v>-0.02994846947914222</v>
       </c>
       <c r="D85">
-        <v>0.007765289545174113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009785292827508705</v>
+      </c>
+      <c r="E85">
+        <v>-0.0367373399590318</v>
+      </c>
+      <c r="F85">
+        <v>-0.04759796577004877</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1019214217124755</v>
+        <v>0.09372461163202733</v>
       </c>
       <c r="C86">
-        <v>0.002510094999990552</v>
+        <v>0.005316496524313224</v>
       </c>
       <c r="D86">
-        <v>0.01103567908358957</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05128545834896434</v>
+      </c>
+      <c r="E86">
+        <v>-0.2229668837857622</v>
+      </c>
+      <c r="F86">
+        <v>0.8984092459675339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09675067505089983</v>
+        <v>0.09284533075828193</v>
       </c>
       <c r="C87">
-        <v>-0.02823058171935181</v>
+        <v>-0.0197923202648564</v>
       </c>
       <c r="D87">
-        <v>0.0735925883766127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09557431819674311</v>
+      </c>
+      <c r="E87">
+        <v>0.05186779801731177</v>
+      </c>
+      <c r="F87">
+        <v>-0.04985047753713635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06197802054945023</v>
+        <v>0.06070386419170033</v>
       </c>
       <c r="C88">
-        <v>-0.00527239539618958</v>
+        <v>-0.002577895054053464</v>
       </c>
       <c r="D88">
-        <v>0.05118054042521194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04995941474728757</v>
+      </c>
+      <c r="E88">
+        <v>-0.02417969068519705</v>
+      </c>
+      <c r="F88">
+        <v>-0.01424797458014138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1174056356942217</v>
+        <v>0.1269213752813379</v>
       </c>
       <c r="C89">
-        <v>-0.004808974817182772</v>
+        <v>-0.01396729997534778</v>
       </c>
       <c r="D89">
-        <v>-0.2463067878479428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436599702380219</v>
+      </c>
+      <c r="E89">
+        <v>0.09321769517860604</v>
+      </c>
+      <c r="F89">
+        <v>0.007538091098300171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1386553360047334</v>
+        <v>0.1523345869647215</v>
       </c>
       <c r="C90">
-        <v>-0.02416872622881402</v>
+        <v>-0.03544048108728577</v>
       </c>
       <c r="D90">
-        <v>-0.2645612382781417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2678278763532683</v>
+      </c>
+      <c r="E90">
+        <v>0.114260047428889</v>
+      </c>
+      <c r="F90">
+        <v>0.008992708025849918</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1215597079167383</v>
+        <v>0.1204910117004104</v>
       </c>
       <c r="C91">
-        <v>-0.02087226605686031</v>
+        <v>-0.02155867314027003</v>
       </c>
       <c r="D91">
-        <v>-0.01955177934585474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01697866761943918</v>
+      </c>
+      <c r="E91">
+        <v>-0.05365080536781652</v>
+      </c>
+      <c r="F91">
+        <v>0.001573247518160615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1392117758376687</v>
+        <v>0.1461181054473581</v>
       </c>
       <c r="C92">
-        <v>-0.01500740786927172</v>
+        <v>-0.02681681980152691</v>
       </c>
       <c r="D92">
-        <v>-0.2976807626269431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2945724524301256</v>
+      </c>
+      <c r="E92">
+        <v>0.1042072122202393</v>
+      </c>
+      <c r="F92">
+        <v>0.01797738773167087</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1407370368625397</v>
+        <v>0.1529778585876912</v>
       </c>
       <c r="C93">
-        <v>-0.02035941140842125</v>
+        <v>-0.03038168362670229</v>
       </c>
       <c r="D93">
-        <v>-0.2660927968933489</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2639690049462675</v>
+      </c>
+      <c r="E93">
+        <v>0.07683584402956897</v>
+      </c>
+      <c r="F93">
+        <v>-0.002214257437356912</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1345730074745038</v>
+        <v>0.1268197407307642</v>
       </c>
       <c r="C94">
-        <v>-0.02796564770766066</v>
+        <v>-0.02605261803602022</v>
       </c>
       <c r="D94">
-        <v>0.03790895694109301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0403215260776334</v>
+      </c>
+      <c r="E94">
+        <v>-0.05736623555866436</v>
+      </c>
+      <c r="F94">
+        <v>-0.03189385556633395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1247032092684912</v>
+        <v>0.1280224908434519</v>
       </c>
       <c r="C95">
-        <v>-0.009736215612770894</v>
+        <v>-0.004206104862407429</v>
       </c>
       <c r="D95">
-        <v>0.08686860813476008</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0978422549695082</v>
+      </c>
+      <c r="E95">
+        <v>-0.05498642276501213</v>
+      </c>
+      <c r="F95">
+        <v>-0.001941660737732126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1233078038390712</v>
+        <v>0.1188901329647947</v>
       </c>
       <c r="C96">
-        <v>0.9866936418043871</v>
+        <v>0.9860711312264265</v>
       </c>
       <c r="D96">
-        <v>-0.01589634091596321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05176847745473209</v>
+      </c>
+      <c r="E96">
+        <v>-0.05153548637952374</v>
+      </c>
+      <c r="F96">
+        <v>-0.04228309210621923</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1953336711140832</v>
+        <v>0.1972816571428911</v>
       </c>
       <c r="C97">
-        <v>0.004208790533111319</v>
+        <v>0.004511290771171107</v>
       </c>
       <c r="D97">
-        <v>-0.01770515428657136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02044627639536253</v>
+      </c>
+      <c r="E97">
+        <v>-0.02543033056598558</v>
+      </c>
+      <c r="F97">
+        <v>0.1201467183370837</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1988445876952395</v>
+        <v>0.2049260698385135</v>
       </c>
       <c r="C98">
-        <v>-0.01174688694527718</v>
+        <v>-0.008084102697802343</v>
       </c>
       <c r="D98">
-        <v>0.01200303722100515</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01610170610421848</v>
+      </c>
+      <c r="E98">
+        <v>0.07528616837130488</v>
+      </c>
+      <c r="F98">
+        <v>0.09155062171613866</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05574312013667174</v>
+        <v>0.0552769346108636</v>
       </c>
       <c r="C99">
-        <v>0.001779736526865789</v>
+        <v>0.003870392878524029</v>
       </c>
       <c r="D99">
-        <v>0.03003471838491677</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03874051088269951</v>
+      </c>
+      <c r="E99">
+        <v>-0.02180874936479521</v>
+      </c>
+      <c r="F99">
+        <v>-0.00326058927317835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1453353925252968</v>
+        <v>0.1309121946978933</v>
       </c>
       <c r="C100">
-        <v>0.03757761330559008</v>
+        <v>0.05060392973992475</v>
       </c>
       <c r="D100">
-        <v>0.3986269018499006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3550147686369431</v>
+      </c>
+      <c r="E100">
+        <v>0.8846082516379836</v>
+      </c>
+      <c r="F100">
+        <v>0.1486683391051792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0255777030071148</v>
+        <v>0.02852463553100528</v>
       </c>
       <c r="C101">
-        <v>-0.00974597488921035</v>
+        <v>-0.008878284373632264</v>
       </c>
       <c r="D101">
-        <v>0.02799403872016478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02985929909672089</v>
+      </c>
+      <c r="E101">
+        <v>-0.01236467374475708</v>
+      </c>
+      <c r="F101">
+        <v>0.01502890551778373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
